--- a/ResultadoEleicoesDistritos/AVEIRO_OVAR.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_OVAR.xlsx
@@ -597,64 +597,64 @@
         <v>15270</v>
       </c>
       <c r="H2" t="n">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="I2" t="n">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="J2" t="n">
-        <v>6184</v>
+        <v>6376</v>
       </c>
       <c r="K2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" t="n">
-        <v>1739</v>
+        <v>1707</v>
       </c>
       <c r="M2" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N2" t="n">
-        <v>1118</v>
+        <v>1163</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="n">
         <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="S2" t="n">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="T2" t="n">
-        <v>1094</v>
+        <v>1128</v>
       </c>
       <c r="U2" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="V2" t="n">
-        <v>9755</v>
+        <v>9739</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>9849</v>
+        <v>9657</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AA2" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
